--- a/Pin assignments.xlsx
+++ b/Pin assignments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\AP STUFF\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Documents\GitHub\IEEE-Advanced-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Signal</t>
   </si>
@@ -47,9 +47,6 @@
     <t>MOSI</t>
   </si>
   <si>
-    <t>PISO</t>
-  </si>
-  <si>
     <t>RF Module</t>
   </si>
   <si>
@@ -93,6 +90,27 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>Teensy pin</t>
+  </si>
+  <si>
+    <t>AGND</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Not Connected</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +147,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,11 +162,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -154,6 +193,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -436,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,21 +503,22 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -474,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -488,13 +540,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -502,13 +554,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -516,13 +568,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -530,13 +582,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -544,37 +596,159 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>22</v>
+      </c>
+      <c r="E19" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pin assignments.xlsx
+++ b/Pin assignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Signal</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Remove</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Change</t>
@@ -117,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +126,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -205,6 +208,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -490,7 +496,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,17 +623,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,8 +749,8 @@
       <c r="B22" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>26</v>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>25</v>

--- a/Pin assignments.xlsx
+++ b/Pin assignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Signal</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>AGND</t>
-  </si>
-  <si>
-    <t>Remove</t>
   </si>
   <si>
     <t>Change</t>
@@ -184,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -211,6 +208,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -495,9 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -633,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,7 +645,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,11 +747,9 @@
       <c r="B22" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Pin assignments.xlsx
+++ b/Pin assignments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Signal</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Not Connected</t>
+  </si>
+  <si>
+    <t>Can be changed</t>
   </si>
 </sst>
 </file>
@@ -495,19 +498,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -536,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -563,8 +566,11 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -577,8 +583,11 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -592,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -620,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -634,7 +643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -660,7 +669,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -672,7 +681,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -684,7 +693,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -698,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -712,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -726,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -740,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>

--- a/Pin assignments.xlsx
+++ b/Pin assignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Signal</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Can be changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>

--- a/Pin assignments.xlsx
+++ b/Pin assignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Signal</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>MISO</t>
   </si>
   <si>
@@ -111,6 +105,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bat. Check</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Left Button</t>
+  </si>
+  <si>
+    <t>Right Button</t>
   </si>
 </sst>
 </file>
@@ -499,9 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -515,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -566,11 +574,11 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+      <c r="D4" s="2">
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,11 +591,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
+      <c r="D5" s="2">
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +628,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -643,125 +651,149 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18</v>
       </c>
       <c r="E19" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>19</v>
+      </c>
+      <c r="E21" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>21</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
